--- a/Documentation/Column Descriptions/HPDB Column and Table.xlsx
+++ b/Documentation/Column Descriptions/HPDB Column and Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1376,9 +1376,6 @@
     <t>Difference between fore draft and aft draft.</t>
   </si>
   <si>
-    <t>Mass of the fluid displaced by the vessel, in tn. This corresponds to a given fluid density.</t>
-  </si>
-  <si>
     <t>Performance value defined as the actual power at the given speed divided by the ideal power at the same speed.</t>
   </si>
   <si>
@@ -1472,9 +1469,6 @@
     <t>The power of the vessel's engine measured at the engine's flywheel.</t>
   </si>
   <si>
-    <t>Nm</t>
-  </si>
-  <si>
     <t>The torque on the propeller shaft.</t>
   </si>
   <si>
@@ -1740,6 +1734,12 @@
   </si>
   <si>
     <t>The power delivered to the propeller. (Is it currently kW?)</t>
+  </si>
+  <si>
+    <t>kNm</t>
+  </si>
+  <si>
+    <t>Volume of the fluid displaced by the vessel, in m^3.</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2393,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,13 +2410,13 @@
         <v>403</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>52</v>
@@ -2514,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -2652,7 +2652,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E20" t="s">
         <v>419</v>
@@ -2749,7 +2749,7 @@
         <v>427</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2802,10 +2802,10 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="E31" t="s">
-        <v>436</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>423</v>
       </c>
       <c r="E32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
         <v>423</v>
       </c>
       <c r="E33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
         <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
         <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
         <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
         <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
         <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
         <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3086,7 +3086,7 @@
         <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
         <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,7 +3163,7 @@
         <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
         <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,7 +3262,7 @@
         <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3273,7 +3273,7 @@
         <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,7 +3317,7 @@
         <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
         <v>130</v>
       </c>
       <c r="E78" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>131</v>
       </c>
       <c r="E79" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3361,7 +3361,7 @@
         <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>135</v>
       </c>
       <c r="E83" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,7 @@
         <v>137</v>
       </c>
       <c r="E85" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3416,7 +3416,7 @@
         <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
         <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,7 +3449,7 @@
         <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>142</v>
       </c>
       <c r="E90" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>143</v>
       </c>
       <c r="E91" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,7 @@
         <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
         <v>145</v>
       </c>
       <c r="E93" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
         <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
         <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
         <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>154</v>
       </c>
       <c r="E102" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>155</v>
       </c>
       <c r="E103" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>156</v>
       </c>
       <c r="E104" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>157</v>
       </c>
       <c r="E105" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>159</v>
       </c>
       <c r="E107" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>160</v>
       </c>
       <c r="E108" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,7 +3669,7 @@
         <v>161</v>
       </c>
       <c r="E109" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
         <v>162</v>
       </c>
       <c r="E110" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>163</v>
       </c>
       <c r="E111" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3702,7 +3702,7 @@
         <v>164</v>
       </c>
       <c r="E112" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>165</v>
       </c>
       <c r="E113" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>166</v>
       </c>
       <c r="E114" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>167</v>
       </c>
       <c r="E115" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>168</v>
       </c>
       <c r="E116" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>169</v>
       </c>
       <c r="E117" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,7 +3768,7 @@
         <v>170</v>
       </c>
       <c r="E118" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>171</v>
       </c>
       <c r="E119" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,7 +3790,7 @@
         <v>172</v>
       </c>
       <c r="E120" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>173</v>
       </c>
       <c r="E121" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>174</v>
       </c>
       <c r="E122" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>175</v>
       </c>
       <c r="E123" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>176</v>
       </c>
       <c r="E124" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,7 +3845,7 @@
         <v>177</v>
       </c>
       <c r="E125" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>178</v>
       </c>
       <c r="E126" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>179</v>
       </c>
       <c r="E127" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>180</v>
       </c>
       <c r="E128" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +3889,7 @@
         <v>181</v>
       </c>
       <c r="E129" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>182</v>
       </c>
       <c r="E130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>183</v>
       </c>
       <c r="E131" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>184</v>
       </c>
       <c r="E132" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
         <v>185</v>
       </c>
       <c r="E133" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3944,7 +3944,7 @@
         <v>186</v>
       </c>
       <c r="E134" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
         <v>187</v>
       </c>
       <c r="E135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3966,7 +3966,7 @@
         <v>188</v>
       </c>
       <c r="E136" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>189</v>
       </c>
       <c r="E137" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>190</v>
       </c>
       <c r="E138" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>191</v>
       </c>
       <c r="E139" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>192</v>
       </c>
       <c r="E140" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,7 +4021,7 @@
         <v>193</v>
       </c>
       <c r="E141" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
         <v>194</v>
       </c>
       <c r="E142" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,7 +4043,7 @@
         <v>195</v>
       </c>
       <c r="E143" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4054,7 +4054,7 @@
         <v>196</v>
       </c>
       <c r="E144" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>197</v>
       </c>
       <c r="E145" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>198</v>
       </c>
       <c r="E146" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4098,7 +4098,7 @@
         <v>200</v>
       </c>
       <c r="E148" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>201</v>
       </c>
       <c r="E149" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>202</v>
       </c>
       <c r="E150" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>203</v>
       </c>
       <c r="E151" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4142,7 +4142,7 @@
         <v>204</v>
       </c>
       <c r="E152" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,7 +4153,7 @@
         <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4164,7 +4164,7 @@
         <v>206</v>
       </c>
       <c r="E154" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>207</v>
       </c>
       <c r="E155" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
         <v>208</v>
       </c>
       <c r="E156" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
         <v>209</v>
       </c>
       <c r="E157" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>210</v>
       </c>
       <c r="E158" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>211</v>
       </c>
       <c r="E159" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,7 +4230,7 @@
         <v>212</v>
       </c>
       <c r="E160" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4241,7 +4241,7 @@
         <v>213</v>
       </c>
       <c r="E161" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>214</v>
       </c>
       <c r="E162" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>215</v>
       </c>
       <c r="E163" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4274,7 +4274,7 @@
         <v>216</v>
       </c>
       <c r="E164" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4285,7 +4285,7 @@
         <v>217</v>
       </c>
       <c r="E165" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4296,7 +4296,7 @@
         <v>218</v>
       </c>
       <c r="E166" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,7 +4307,7 @@
         <v>219</v>
       </c>
       <c r="E167" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4318,7 +4318,7 @@
         <v>220</v>
       </c>
       <c r="E168" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4329,7 +4329,7 @@
         <v>221</v>
       </c>
       <c r="E169" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>222</v>
       </c>
       <c r="E170" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <v>223</v>
       </c>
       <c r="E171" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
         <v>224</v>
       </c>
       <c r="E172" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
         <v>225</v>
       </c>
       <c r="E173" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
         <v>226</v>
       </c>
       <c r="E174" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4395,7 +4395,7 @@
         <v>227</v>
       </c>
       <c r="E175" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4406,7 +4406,7 @@
         <v>228</v>
       </c>
       <c r="E176" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4417,7 +4417,7 @@
         <v>229</v>
       </c>
       <c r="E177" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>230</v>
       </c>
       <c r="E178" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
         <v>231</v>
       </c>
       <c r="E179" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
         <v>232</v>
       </c>
       <c r="E180" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>233</v>
       </c>
       <c r="E181" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>234</v>
       </c>
       <c r="E182" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4483,7 +4483,7 @@
         <v>235</v>
       </c>
       <c r="E183" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4494,7 +4494,7 @@
         <v>236</v>
       </c>
       <c r="E184" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4505,7 +4505,7 @@
         <v>237</v>
       </c>
       <c r="E185" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4516,7 +4516,7 @@
         <v>238</v>
       </c>
       <c r="E186" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>239</v>
       </c>
       <c r="E187" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>240</v>
       </c>
       <c r="E188" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>241</v>
       </c>
       <c r="E189" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,7 @@
         <v>242</v>
       </c>
       <c r="E190" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>243</v>
       </c>
       <c r="E191" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4582,7 +4582,7 @@
         <v>244</v>
       </c>
       <c r="E192" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,7 +4593,7 @@
         <v>245</v>
       </c>
       <c r="E193" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>246</v>
       </c>
       <c r="E194" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>247</v>
       </c>
       <c r="E195" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
         <v>248</v>
       </c>
       <c r="E196" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,7 +4637,7 @@
         <v>249</v>
       </c>
       <c r="E197" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4648,7 +4648,7 @@
         <v>250</v>
       </c>
       <c r="E198" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>251</v>
       </c>
       <c r="E199" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,7 +4670,7 @@
         <v>252</v>
       </c>
       <c r="E200" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>253</v>
       </c>
       <c r="E201" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4692,7 +4692,7 @@
         <v>254</v>
       </c>
       <c r="E202" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,7 +4703,7 @@
         <v>255</v>
       </c>
       <c r="E203" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
         <v>256</v>
       </c>
       <c r="E204" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
         <v>257</v>
       </c>
       <c r="E205" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4736,7 +4736,7 @@
         <v>258</v>
       </c>
       <c r="E206" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
         <v>259</v>
       </c>
       <c r="E207" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,7 +4758,7 @@
         <v>260</v>
       </c>
       <c r="E208" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,7 +4769,7 @@
         <v>261</v>
       </c>
       <c r="E209" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
         <v>262</v>
       </c>
       <c r="E210" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4791,7 +4791,7 @@
         <v>263</v>
       </c>
       <c r="E211" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4802,7 +4802,7 @@
         <v>264</v>
       </c>
       <c r="E212" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,7 +4813,7 @@
         <v>265</v>
       </c>
       <c r="E213" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
         <v>266</v>
       </c>
       <c r="E214" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4835,7 +4835,7 @@
         <v>267</v>
       </c>
       <c r="E215" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
         <v>268</v>
       </c>
       <c r="E216" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>269</v>
       </c>
       <c r="E217" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4868,7 +4868,7 @@
         <v>270</v>
       </c>
       <c r="E218" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4879,7 +4879,7 @@
         <v>271</v>
       </c>
       <c r="E219" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
         <v>272</v>
       </c>
       <c r="E220" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
         <v>273</v>
       </c>
       <c r="E221" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4912,7 +4912,7 @@
         <v>274</v>
       </c>
       <c r="E222" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,7 +4923,7 @@
         <v>275</v>
       </c>
       <c r="E223" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>276</v>
       </c>
       <c r="E224" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
         <v>277</v>
       </c>
       <c r="E225" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
         <v>278</v>
       </c>
       <c r="E226" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
         <v>279</v>
       </c>
       <c r="E227" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>280</v>
       </c>
       <c r="E228" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>281</v>
       </c>
       <c r="E229" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>282</v>
       </c>
       <c r="E230" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,7 +5011,7 @@
         <v>283</v>
       </c>
       <c r="E231" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5022,7 +5022,7 @@
         <v>284</v>
       </c>
       <c r="E232" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5033,7 +5033,7 @@
         <v>285</v>
       </c>
       <c r="E233" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>286</v>
       </c>
       <c r="E234" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>287</v>
       </c>
       <c r="E235" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,7 +5066,7 @@
         <v>288</v>
       </c>
       <c r="E236" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
         <v>289</v>
       </c>
       <c r="E237" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>290</v>
       </c>
       <c r="E238" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5099,7 +5099,7 @@
         <v>291</v>
       </c>
       <c r="E239" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5110,7 +5110,7 @@
         <v>292</v>
       </c>
       <c r="E240" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>293</v>
       </c>
       <c r="E241" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>294</v>
       </c>
       <c r="E242" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5143,7 +5143,7 @@
         <v>295</v>
       </c>
       <c r="E243" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
         <v>296</v>
       </c>
       <c r="E244" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
         <v>297</v>
       </c>
       <c r="E245" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>298</v>
       </c>
       <c r="E246" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>299</v>
       </c>
       <c r="E247" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>300</v>
       </c>
       <c r="E248" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5209,7 +5209,7 @@
         <v>301</v>
       </c>
       <c r="E249" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
         <v>302</v>
       </c>
       <c r="E250" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>303</v>
       </c>
       <c r="E251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
         <v>304</v>
       </c>
       <c r="E252" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,7 +5253,7 @@
         <v>305</v>
       </c>
       <c r="E253" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>306</v>
       </c>
       <c r="E254" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5275,10 +5275,10 @@
         <v>307</v>
       </c>
       <c r="C255" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E255" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5289,13 +5289,13 @@
         <v>308</v>
       </c>
       <c r="C256" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D256" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E256" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5306,7 +5306,7 @@
         <v>309</v>
       </c>
       <c r="E257" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>310</v>
       </c>
       <c r="E258" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>311</v>
       </c>
       <c r="E259" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,10 +5339,10 @@
         <v>312</v>
       </c>
       <c r="C260" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E260" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,13 +5353,13 @@
         <v>313</v>
       </c>
       <c r="C261" t="s">
+        <v>449</v>
+      </c>
+      <c r="D261" t="s">
+        <v>547</v>
+      </c>
+      <c r="E261" t="s">
         <v>450</v>
-      </c>
-      <c r="D261" t="s">
-        <v>549</v>
-      </c>
-      <c r="E261" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5370,10 +5370,10 @@
         <v>314</v>
       </c>
       <c r="C262" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E262" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5384,13 +5384,13 @@
         <v>315</v>
       </c>
       <c r="C263" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D263" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E263" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5401,10 +5401,10 @@
         <v>316</v>
       </c>
       <c r="C264" t="s">
+        <v>453</v>
+      </c>
+      <c r="E264" t="s">
         <v>454</v>
-      </c>
-      <c r="E264" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -5418,7 +5418,7 @@
         <v>427</v>
       </c>
       <c r="E265" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>427</v>
       </c>
       <c r="E266" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -5457,13 +5457,13 @@
         <v>320</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,10 +5474,10 @@
         <v>321</v>
       </c>
       <c r="C269" t="s">
+        <v>458</v>
+      </c>
+      <c r="E269" t="s">
         <v>459</v>
-      </c>
-      <c r="E269" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5488,10 +5488,10 @@
         <v>322</v>
       </c>
       <c r="C270" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E270" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -5502,10 +5502,10 @@
         <v>323</v>
       </c>
       <c r="C271" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,10 +5516,10 @@
         <v>324</v>
       </c>
       <c r="C272" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E272" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
         <v>325</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5541,10 +5541,10 @@
         <v>326</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,10 +5555,10 @@
         <v>327</v>
       </c>
       <c r="C275" t="s">
+        <v>464</v>
+      </c>
+      <c r="E275" t="s">
         <v>465</v>
-      </c>
-      <c r="E275" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,10 +5569,10 @@
         <v>328</v>
       </c>
       <c r="C276" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E276" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5583,10 +5583,10 @@
         <v>329</v>
       </c>
       <c r="C277" t="s">
-        <v>468</v>
+        <v>556</v>
       </c>
       <c r="E277" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>425</v>
       </c>
       <c r="E278" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,10 +5611,10 @@
         <v>331</v>
       </c>
       <c r="C279" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E279" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5625,10 +5625,10 @@
         <v>332</v>
       </c>
       <c r="C280" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E280" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
         <v>333</v>
       </c>
       <c r="E281" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,7 +5650,7 @@
         <v>334</v>
       </c>
       <c r="E282" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>335</v>
       </c>
       <c r="E283" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5672,10 +5672,10 @@
         <v>336</v>
       </c>
       <c r="C284" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E284" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5686,10 +5686,10 @@
         <v>337</v>
       </c>
       <c r="C285" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E285" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5700,10 +5700,10 @@
         <v>338</v>
       </c>
       <c r="C286" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E286" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
         <v>339</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
         <v>340</v>
       </c>
       <c r="E288" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5736,7 +5736,7 @@
         <v>341</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5747,7 +5747,7 @@
         <v>343</v>
       </c>
       <c r="E290" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,7 +5758,7 @@
         <v>344</v>
       </c>
       <c r="E291" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
         <v>345</v>
       </c>
       <c r="E292" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5780,7 +5780,7 @@
         <v>346</v>
       </c>
       <c r="E293" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5791,7 +5791,7 @@
         <v>347</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5802,10 +5802,10 @@
         <v>348</v>
       </c>
       <c r="C295" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E295" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5816,10 +5816,10 @@
         <v>349</v>
       </c>
       <c r="C296" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E296" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -5830,10 +5830,10 @@
         <v>350</v>
       </c>
       <c r="C297" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E297" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -5844,10 +5844,10 @@
         <v>351</v>
       </c>
       <c r="C298" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E298" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -5858,10 +5858,10 @@
         <v>352</v>
       </c>
       <c r="C299" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E299" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
         <v>423</v>
       </c>
       <c r="E300" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -5886,10 +5886,10 @@
         <v>354</v>
       </c>
       <c r="C301" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E301" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -5900,10 +5900,10 @@
         <v>355</v>
       </c>
       <c r="C302" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E302" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -5914,13 +5914,13 @@
         <v>356</v>
       </c>
       <c r="C303" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D303" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E303" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -5934,7 +5934,7 @@
         <v>427</v>
       </c>
       <c r="E304" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -5945,10 +5945,10 @@
         <v>358</v>
       </c>
       <c r="C305" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E305" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5959,13 +5959,13 @@
         <v>359</v>
       </c>
       <c r="C306" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D306" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E306" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5976,10 +5976,10 @@
         <v>360</v>
       </c>
       <c r="C307" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E307" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,13 +5990,13 @@
         <v>361</v>
       </c>
       <c r="C308" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D308" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E308" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,10 +6007,10 @@
         <v>362</v>
       </c>
       <c r="C309" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="E309" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -6021,10 +6021,10 @@
         <v>363</v>
       </c>
       <c r="C310" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E310" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,7 +6035,7 @@
         <v>364</v>
       </c>
       <c r="E311" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6046,7 +6046,7 @@
         <v>365</v>
       </c>
       <c r="E312" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,7 +6057,7 @@
         <v>366</v>
       </c>
       <c r="E313" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
         <v>367</v>
       </c>
       <c r="E314" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,7 +6079,7 @@
         <v>368</v>
       </c>
       <c r="E315" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -6090,10 +6090,10 @@
         <v>369</v>
       </c>
       <c r="C316" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="E316" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>427</v>
       </c>
       <c r="E317" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -6121,7 +6121,7 @@
         <v>427</v>
       </c>
       <c r="E318" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>371</v>
       </c>
       <c r="E319" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>372</v>
       </c>
       <c r="E320" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -6154,10 +6154,10 @@
         <v>373</v>
       </c>
       <c r="C321" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E321" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
         <v>374</v>
       </c>
       <c r="E322" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -6179,7 +6179,7 @@
         <v>375</v>
       </c>
       <c r="E323" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -6190,7 +6190,7 @@
         <v>376</v>
       </c>
       <c r="E324" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
         <v>377</v>
       </c>
       <c r="E325" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>378</v>
       </c>
       <c r="E326" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -6223,7 +6223,7 @@
         <v>379</v>
       </c>
       <c r="E327" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -6234,7 +6234,7 @@
         <v>380</v>
       </c>
       <c r="E328" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
         <v>381</v>
       </c>
       <c r="E329" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,7 +6256,7 @@
         <v>382</v>
       </c>
       <c r="E330" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -6267,7 +6267,7 @@
         <v>383</v>
       </c>
       <c r="E331" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -6278,7 +6278,7 @@
         <v>384</v>
       </c>
       <c r="E332" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>385</v>
       </c>
       <c r="E333" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
         <v>386</v>
       </c>
       <c r="E334" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6311,7 +6311,7 @@
         <v>387</v>
       </c>
       <c r="E335" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6322,10 +6322,10 @@
         <v>388</v>
       </c>
       <c r="C336" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E336" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="337" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>389</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6350,7 +6350,7 @@
         <v>427</v>
       </c>
       <c r="E338" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>427</v>
       </c>
       <c r="E339" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -6378,7 +6378,7 @@
         <v>427</v>
       </c>
       <c r="E340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>393</v>
       </c>
       <c r="E341" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -6403,7 +6403,7 @@
         <v>427</v>
       </c>
       <c r="E342" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6414,7 +6414,7 @@
         <v>395</v>
       </c>
       <c r="E343" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
         <v>427</v>
       </c>
       <c r="E344" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
         <v>427</v>
       </c>
       <c r="E345" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,7 +6453,7 @@
         <v>398</v>
       </c>
       <c r="E346" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>399</v>
       </c>
       <c r="E347" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -6475,13 +6475,13 @@
         <v>400</v>
       </c>
       <c r="C348" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D348" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E348" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>401</v>
       </c>
       <c r="E349" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -6503,7 +6503,7 @@
         <v>402</v>
       </c>
       <c r="E350" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Column Descriptions/HPDB Column and Table.xlsx
+++ b/Documentation/Column Descriptions/HPDB Column and Table.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="560">
   <si>
     <t>Name</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>Volume of the fluid displaced by the vessel, in m^3.</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Density of air, calculated from pressure and temperature.</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1781,6 +1787,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,7 +1809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1806,6 +1818,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2391,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F350"/>
+  <dimension ref="A1:F351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6252,22 +6265,26 @@
       <c r="A330" t="s">
         <v>30</v>
       </c>
-      <c r="B330" t="s">
-        <v>382</v>
-      </c>
-      <c r="E330" t="s">
-        <v>519</v>
+      <c r="B330" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B331" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E331" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -6275,21 +6292,21 @@
         <v>31</v>
       </c>
       <c r="B332" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E332" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E333" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -6297,10 +6314,10 @@
         <v>32</v>
       </c>
       <c r="B334" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E334" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6308,10 +6325,10 @@
         <v>32</v>
       </c>
       <c r="B335" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E335" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6319,38 +6336,38 @@
         <v>32</v>
       </c>
       <c r="B336" t="s">
+        <v>387</v>
+      </c>
+      <c r="E336" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" t="s">
         <v>388</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C337" t="s">
         <v>489</v>
       </c>
-      <c r="E336" t="s">
+      <c r="D337"/>
+      <c r="E337" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="337" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3" t="s">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E337" s="3" t="s">
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>32</v>
-      </c>
-      <c r="B338" t="s">
-        <v>390</v>
-      </c>
-      <c r="C338" t="s">
-        <v>427</v>
-      </c>
-      <c r="E338" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,13 +6375,13 @@
         <v>32</v>
       </c>
       <c r="B339" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C339" t="s">
         <v>427</v>
       </c>
       <c r="E339" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -6372,13 +6389,13 @@
         <v>32</v>
       </c>
       <c r="B340" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C340" t="s">
         <v>427</v>
       </c>
       <c r="E340" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6386,10 +6403,13 @@
         <v>32</v>
       </c>
       <c r="B341" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="C341" t="s">
+        <v>427</v>
       </c>
       <c r="E341" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -6397,13 +6417,10 @@
         <v>32</v>
       </c>
       <c r="B342" t="s">
-        <v>394</v>
-      </c>
-      <c r="C342" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="E342" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6411,10 +6428,13 @@
         <v>32</v>
       </c>
       <c r="B343" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="C343" t="s">
+        <v>427</v>
       </c>
       <c r="E343" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -6422,13 +6442,10 @@
         <v>32</v>
       </c>
       <c r="B344" t="s">
-        <v>396</v>
-      </c>
-      <c r="C344" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="E344" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -6436,35 +6453,38 @@
         <v>32</v>
       </c>
       <c r="B345" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C345" t="s">
         <v>427</v>
       </c>
       <c r="E345" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B346" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="C346" t="s">
+        <v>427</v>
       </c>
       <c r="E346" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B347" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E347" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -6472,16 +6492,10 @@
         <v>34</v>
       </c>
       <c r="B348" t="s">
-        <v>400</v>
-      </c>
-      <c r="C348" t="s">
-        <v>493</v>
-      </c>
-      <c r="D348" t="s">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="E348" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -6489,10 +6503,16 @@
         <v>34</v>
       </c>
       <c r="B349" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="C349" t="s">
+        <v>493</v>
+      </c>
+      <c r="D349" t="s">
+        <v>547</v>
       </c>
       <c r="E349" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -6500,9 +6520,20 @@
         <v>34</v>
       </c>
       <c r="B350" t="s">
+        <v>401</v>
+      </c>
+      <c r="E350" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>34</v>
+      </c>
+      <c r="B351" t="s">
         <v>402</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E351" t="s">
         <v>538</v>
       </c>
     </row>
